--- a/data/trans_dic/P3A$personadelacasa-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.21123647916872</v>
+        <v>0.2082982018115857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.198385372909035</v>
+        <v>0.1970462667129693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2091479851182742</v>
+        <v>0.213180422660571</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2862748190659253</v>
+        <v>0.2868668229921967</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2527554315802218</v>
+        <v>0.2538998887210611</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2591933318487032</v>
+        <v>0.2613086620548031</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.257538378889298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2676670178596721</v>
+        <v>0.267667017859672</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2453628338887297</v>
+        <v>0.2478264196552796</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2325943396006001</v>
+        <v>0.2329012281227707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.246942439535705</v>
+        <v>0.2472795289843732</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3140674898153847</v>
+        <v>0.3157684608714966</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2885955170082414</v>
+        <v>0.2856463600602105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2891779529097859</v>
+        <v>0.2887847679263933</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.306345575797166</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2791639407580429</v>
+        <v>0.279163940758043</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2926774731788955</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2668190478650596</v>
+        <v>0.2700112225677836</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2442669803736641</v>
+        <v>0.2469030743793395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2663147907969506</v>
+        <v>0.2678650884356453</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3470865106283078</v>
+        <v>0.3532321874913605</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3133610699649869</v>
+        <v>0.3151164269997058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3180504191434372</v>
+        <v>0.3219073215544129</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.237989287824772</v>
+        <v>0.2377231501694099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2265457083945132</v>
+        <v>0.2279999228480551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2399116710202291</v>
+        <v>0.2386142206335033</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.300618249120033</v>
+        <v>0.3062491952624758</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2794502048668412</v>
+        <v>0.278848003466517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.279285232775116</v>
+        <v>0.2793268453359719</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>145801</v>
+        <v>143773</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>145651</v>
+        <v>144667</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>297912</v>
+        <v>303655</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>197594</v>
+        <v>198003</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>185568</v>
+        <v>186408</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>369197</v>
+        <v>372210</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>257365</v>
+        <v>259949</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>249219</v>
+        <v>249548</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>523615</v>
+        <v>524329</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>329431</v>
+        <v>331215</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>309223</v>
+        <v>306063</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>613170</v>
+        <v>612337</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>214275</v>
+        <v>216839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>198408</v>
+        <v>200549</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>430187</v>
+        <v>432691</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>278736</v>
+        <v>283671</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>254530</v>
+        <v>255956</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>513757</v>
+        <v>519987</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>235479</v>
+        <v>235216</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>253232</v>
+        <v>254857</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>505554</v>
+        <v>502820</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>297447</v>
+        <v>303019</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>312368</v>
+        <v>311695</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>588524</v>
+        <v>588611</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
     </row>
     <row r="24">
